--- a/Es08/data/Calcolo Variabili.xlsx
+++ b/Es08/data/Calcolo Variabili.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es08\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18244697-DFC7-4D4A-848A-6FF0CBC32162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44584001-6249-4E43-B0BA-3DCA0D0B8A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Vs</t>
   </si>
@@ -140,6 +140,48 @@
   </si>
   <si>
     <t>F.S. R (ohm)</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>idss R1</t>
+  </si>
+  <si>
+    <t>Amplificatore</t>
+  </si>
+  <si>
+    <t>guadagno cb</t>
+  </si>
+  <si>
+    <t>16 Hz</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>3,54 Mhz</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>V RD</t>
+  </si>
+  <si>
+    <t>i quiesc.</t>
+  </si>
+  <si>
+    <t>VGS</t>
+  </si>
+  <si>
+    <t>VDS</t>
+  </si>
+  <si>
+    <t>trans</t>
   </si>
 </sst>
 </file>
@@ -468,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,6 +599,10 @@
         <f>IF(F2&lt;0.5,SQRT((0.005*E2)^2 + (0.1*F2/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E2)^2 + (0.1*F2/SQRT(12))^2 + (0.003)^2))</f>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H2" t="e">
+        <f>E2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I2" t="e">
         <f>H2*SQRT((G2/E2)^2 + (D2/B2)^2)</f>
         <v>#DIV/0!</v>
@@ -600,8 +646,12 @@
         <f t="shared" ref="G3:G66" si="1">IF(F3&lt;0.5,SQRT((0.005*E3)^2 + (0.1*F3/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E3)^2 + (0.1*F3/SQRT(12))^2 + (0.003)^2))</f>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H66" si="2">E3/B3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I3" t="e">
-        <f t="shared" ref="I3:I66" si="2">H3*SQRT((G3/E3)^2 + (D3/B3)^2)</f>
+        <f t="shared" ref="I3:I66" si="3">H3*SQRT((G3/E3)^2 + (D3/B3)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" t="e" cm="1">
@@ -609,26 +659,26 @@
         <v>#N/A</v>
       </c>
       <c r="P3" t="e">
-        <f t="shared" ref="P3:P66" si="3">SQRT((0.1*N3)^2+(1/(O3*2))^2)</f>
+        <f t="shared" ref="P3:P66" si="4">SQRT((0.1*N3)^2+(1/(O3*2))^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q3" t="e">
-        <f t="shared" ref="Q3:Q66" si="4">1/M3</f>
+        <f t="shared" ref="Q3:Q66" si="5">1/M3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R3" t="e">
-        <f t="shared" ref="R3:R66" si="5">Q3*P3/M3</f>
+        <f t="shared" ref="R3:R66" si="6">Q3*P3/M3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S3">
-        <v>97</v>
+        <v>99.3</v>
       </c>
       <c r="T3">
         <v>200</v>
       </c>
       <c r="U3" cm="1">
         <f t="array" ref="U3">_xlfn.SWITCH(T3,2,SQRT((0.003)^2 + (0.04*S3)^2),20,SQRT((0.03)^2 + (0.04*S3)^2),200,SQRT((0.3)^2 + (0.04*S3)^2),2000,SQRT((3)^2 + (0.04*S3)^2),200000,SQRT((10*100)^2 + (0.06*S3)^2))</f>
-        <v>3.891580655723327</v>
+        <v>3.9833131938124069</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -643,8 +693,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="1"/>
@@ -653,26 +707,26 @@
         <v>#N/A</v>
       </c>
       <c r="P4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S4">
-        <v>10.64</v>
+        <v>9.59</v>
       </c>
       <c r="T4">
         <v>20</v>
       </c>
       <c r="U4" cm="1">
         <f t="array" ref="U4">_xlfn.SWITCH(T4,2,SQRT((0.003)^2 + (0.04*S4)^2),20,SQRT((0.03)^2 + (0.04*S4)^2),200,SQRT((0.3)^2 + (0.04*S4)^2),2000,SQRT((3)^2 + (0.04*S4)^2),200000,SQRT((10*100)^2 + (0.06*S4)^2))</f>
-        <v>0.42665602070051706</v>
+        <v>0.38477130870167542</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -687,8 +741,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" t="e" cm="1">
@@ -696,26 +754,26 @@
         <v>#N/A</v>
       </c>
       <c r="P5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S5">
-        <v>90200</v>
+        <v>88900</v>
       </c>
       <c r="T5">
         <v>200000</v>
       </c>
       <c r="U5" cm="1">
         <f t="array" ref="U5">_xlfn.SWITCH(T5,2,SQRT((0.003)^2 + (0.04*S5)^2),20,SQRT((0.03)^2 + (0.04*S5)^2),200,SQRT((0.3)^2 + (0.04*S5)^2),2000,SQRT((3)^2 + (0.04*S5)^2),200000,SQRT((10*100)^2 + (0.06*S5)^2))</f>
-        <v>5503.6119049220761</v>
+        <v>5426.9287815485477</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -730,8 +788,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J6">
@@ -745,15 +807,15 @@
         <v>2.6483383469639978</v>
       </c>
       <c r="P6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U6" t="e" cm="1">
@@ -773,8 +835,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7">
@@ -788,15 +854,15 @@
         <v>8.2151703573328287</v>
       </c>
       <c r="P7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U7" t="e" cm="1">
@@ -816,31 +882,35 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8">
-        <v>1002000</v>
+        <v>1020000</v>
       </c>
       <c r="K8">
         <v>2000000</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">_xlfn.SWITCH(K8,200,SQRT((0.008*J8)^2 + (3*0.1)^2),2000,SQRT((0.008*J8)^2 + (2*1)^2),20000,SQRT((0.008*J8)^2 + (2*10)^2),200000,SQRT((0.008*J8)^2 + (2*100)^2),2000000,SQRT((0.008*J8)^2 + (2*1000)^2),20000000,SQRT((0.01*J8)^2 + (2*10000)^2),200000000,SQRT((0.06*J8)^2 + (10*100000)^2))</f>
-        <v>8261.7344425973897</v>
+        <v>8401.5236713348604</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U8" t="e" cm="1">
@@ -849,32 +919,48 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>100.4</v>
+      </c>
+      <c r="C9">
+        <v>10.4</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>0.85748036323482857</v>
+      </c>
+      <c r="E9">
+        <v>0.94796999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.15</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I9" t="e">
+        <f>IF(F9&lt;0.5,SQRT((0.005*E9)^2 + (0.1*F9/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E9)^2 + (0.1*F9/SQRT(12))^2 + (0.003)^2))</f>
+        <v>6.426988254423685E-3</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.4419322709163346E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1.0295923755307304E-4</v>
       </c>
       <c r="L9" t="e" cm="1">
         <f t="array" ref="L9">_xlfn.SWITCH(K9,200,SQRT((0.008*J9)^2 + (3*0.1)^2),2000,SQRT((0.008*J9)^2 + (2*1)^2),20000,SQRT((0.008*J9)^2 + (2*10)^2),200000,SQRT((0.008*J9)^2 + (2*100)^2),2000000,SQRT((0.008*J9)^2 + (2*1000)^2),20000000,SQRT((0.01*J9)^2 + (2*10000)^2),200000000,SQRT((0.06*J9)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U9" t="e" cm="1">
@@ -883,16 +969,29 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>-2.6179000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.5611539578348923E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" t="e" cm="1">
@@ -900,15 +999,15 @@
         <v>#N/A</v>
       </c>
       <c r="P10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U10" t="e" cm="1">
@@ -917,16 +1016,29 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>0.94796999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.15</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>6.426988254423685E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" t="e" cm="1">
@@ -934,15 +1046,15 @@
         <v>#N/A</v>
       </c>
       <c r="P11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U11" t="e" cm="1">
@@ -959,8 +1071,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" t="e" cm="1">
@@ -968,15 +1084,15 @@
         <v>#N/A</v>
       </c>
       <c r="P12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" t="e" cm="1">
@@ -985,32 +1101,51 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.10017</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>8.2108711829703761E-4</v>
+      </c>
+      <c r="E13">
+        <v>0.20602999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I13" t="e">
+        <v>1.7984833487784463E-3</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0568034341619246</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2.4629242545271643E-2</v>
       </c>
       <c r="L13" t="e" cm="1">
         <f t="array" ref="L13">_xlfn.SWITCH(K13,200,SQRT((0.008*J13)^2 + (3*0.1)^2),2000,SQRT((0.008*J13)^2 + (2*1)^2),20000,SQRT((0.008*J13)^2 + (2*10)^2),200000,SQRT((0.008*J13)^2 + (2*100)^2),2000000,SQRT((0.008*J13)^2 + (2*1000)^2),20000000,SQRT((0.01*J13)^2 + (2*10000)^2),200000000,SQRT((0.06*J13)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U13" t="e" cm="1">
@@ -1019,32 +1154,48 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.20035</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>1.7823681987270011E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I14" t="e">
+        <v>3.5561718649881557E-3</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0514100324432243</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2.5458088070403485E-2</v>
       </c>
       <c r="L14" t="e" cm="1">
         <f t="array" ref="L14">_xlfn.SWITCH(K14,200,SQRT((0.008*J14)^2 + (3*0.1)^2),2000,SQRT((0.008*J14)^2 + (2*1)^2),20000,SQRT((0.008*J14)^2 + (2*10)^2),200000,SQRT((0.008*J14)^2 + (2*100)^2),2000000,SQRT((0.008*J14)^2 + (2*1000)^2),20000000,SQRT((0.01*J14)^2 + (2*10000)^2),200000000,SQRT((0.06*J14)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" t="e" cm="1">
@@ -1053,32 +1204,48 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.30036000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.2678336208156831E-3</v>
+      </c>
+      <c r="E15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I15" t="e">
+        <v>6.5505521395782624E-3</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.050872286589426</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.1200947474682831E-2</v>
       </c>
       <c r="L15" t="e" cm="1">
         <f t="array" ref="L15">_xlfn.SWITCH(K15,200,SQRT((0.008*J15)^2 + (3*0.1)^2),2000,SQRT((0.008*J15)^2 + (2*1)^2),20000,SQRT((0.008*J15)^2 + (2*10)^2),200000,SQRT((0.008*J15)^2 + (2*100)^2),2000000,SQRT((0.008*J15)^2 + (2*1000)^2),20000000,SQRT((0.01*J15)^2 + (2*10000)^2),200000000,SQRT((0.06*J15)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" t="e" cm="1">
@@ -1087,32 +1254,48 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.5258101669450865E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I16" t="e">
+        <v>7.0904413355822463E-3</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0504495504495504</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2.5290215025520851E-2</v>
       </c>
       <c r="L16" t="e" cm="1">
         <f t="array" ref="L16">_xlfn.SWITCH(K16,200,SQRT((0.008*J16)^2 + (3*0.1)^2),2000,SQRT((0.008*J16)^2 + (2*1)^2),20000,SQRT((0.008*J16)^2 + (2*10)^2),200000,SQRT((0.008*J16)^2 + (2*100)^2),2000000,SQRT((0.008*J16)^2 + (2*1000)^2),20000000,SQRT((0.01*J16)^2 + (2*10000)^2),200000000,SQRT((0.06*J16)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U16" t="e" cm="1">
@@ -1120,33 +1303,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.8325373231494226E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.026</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I17" t="e">
+        <v>7.7291806379029175E-3</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.049540551338394</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2.2013576999699736E-2</v>
       </c>
       <c r="L17" t="e" cm="1">
         <f t="array" ref="L17">_xlfn.SWITCH(K17,200,SQRT((0.008*J17)^2 + (3*0.1)^2),2000,SQRT((0.008*J17)^2 + (2*1)^2),20000,SQRT((0.008*J17)^2 + (2*10)^2),200000,SQRT((0.008*J17)^2 + (2*100)^2),2000000,SQRT((0.008*J17)^2 + (2*1000)^2),20000000,SQRT((0.01*J17)^2 + (2*10000)^2),200000000,SQRT((0.06*J17)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U17" t="e" cm="1">
@@ -1154,33 +1353,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.60055999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>6.5146098251033686E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.2178</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I18" t="e">
+        <v>1.7670531715071092E-2</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0277740775276407</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>3.6736622529762467E-2</v>
       </c>
       <c r="L18" t="e" cm="1">
         <f t="array" ref="L18">_xlfn.SWITCH(K18,200,SQRT((0.008*J18)^2 + (3*0.1)^2),2000,SQRT((0.008*J18)^2 + (2*1)^2),20000,SQRT((0.008*J18)^2 + (2*10)^2),200000,SQRT((0.008*J18)^2 + (2*100)^2),2000000,SQRT((0.008*J18)^2 + (2*1000)^2),20000000,SQRT((0.01*J18)^2 + (2*10000)^2),200000000,SQRT((0.06*J18)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U18" t="e" cm="1">
@@ -1188,33 +1403,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.70065999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>6.7599145130196247E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.4218</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I19" t="e">
+        <v>1.862015866455851E-2</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0292295835355239</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>3.3008059534173219E-2</v>
       </c>
       <c r="L19" t="e" cm="1">
         <f t="array" ref="L19">_xlfn.SWITCH(K19,200,SQRT((0.008*J19)^2 + (3*0.1)^2),2000,SQRT((0.008*J19)^2 + (2*1)^2),20000,SQRT((0.008*J19)^2 + (2*10)^2),200000,SQRT((0.008*J19)^2 + (2*100)^2),2000000,SQRT((0.008*J19)^2 + (2*1000)^2),20000000,SQRT((0.01*J19)^2 + (2*10000)^2),200000000,SQRT((0.06*J19)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U19" t="e" cm="1">
@@ -1222,33 +1453,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.80054999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.0317381134278141E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I20" t="e">
+        <v>1.9607817760611032E-2</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0186122041096746</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.023711788506929E-2</v>
       </c>
       <c r="L20" t="e" cm="1">
         <f t="array" ref="L20">_xlfn.SWITCH(K20,200,SQRT((0.008*J20)^2 + (3*0.1)^2),2000,SQRT((0.008*J20)^2 + (2*1)^2),20000,SQRT((0.008*J20)^2 + (2*10)^2),200000,SQRT((0.008*J20)^2 + (2*100)^2),2000000,SQRT((0.008*J20)^2 + (2*1000)^2),20000000,SQRT((0.01*J20)^2 + (2*10000)^2),200000000,SQRT((0.06*J20)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U20" t="e" cm="1">
@@ -1256,33 +1503,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0.90056000000000003</v>
+      </c>
+      <c r="C21">
+        <v>0.2</v>
+      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.3279288460883236E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.802</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I21" t="e">
+        <v>2.0619272279431528E-2</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0009771697610375</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2.8095133731272495E-2</v>
       </c>
       <c r="L21" t="e" cm="1">
         <f t="array" ref="L21">_xlfn.SWITCH(K21,200,SQRT((0.008*J21)^2 + (3*0.1)^2),2000,SQRT((0.008*J21)^2 + (2*1)^2),20000,SQRT((0.008*J21)^2 + (2*10)^2),200000,SQRT((0.008*J21)^2 + (2*100)^2),2000000,SQRT((0.008*J21)^2 + (2*1000)^2),20000000,SQRT((0.01*J21)^2 + (2*10000)^2),200000000,SQRT((0.06*J21)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P21" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" t="e" cm="1">
@@ -1290,33 +1553,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1.0004</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.6448242186026322E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.9866999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I22" t="e">
+        <v>2.1678096187011751E-2</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.985905637744902</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2.6455054701722779E-2</v>
       </c>
       <c r="L22" t="e" cm="1">
         <f t="array" ref="L22">_xlfn.SWITCH(K22,200,SQRT((0.008*J22)^2 + (3*0.1)^2),2000,SQRT((0.008*J22)^2 + (2*1)^2),20000,SQRT((0.008*J22)^2 + (2*10)^2),200000,SQRT((0.008*J22)^2 + (2*100)^2),2000000,SQRT((0.008*J22)^2 + (2*1000)^2),20000000,SQRT((0.01*J22)^2 + (2*10000)^2),200000000,SQRT((0.06*J22)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R22" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U22" t="e" cm="1">
@@ -1324,33 +1603,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1.101</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.9830043425600967E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I23" t="e">
+        <v>2.2683715157207678E-2</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.9573115349682106</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2.5017697252157873E-2</v>
       </c>
       <c r="L23" t="e" cm="1">
         <f t="array" ref="L23">_xlfn.SWITCH(K23,200,SQRT((0.008*J23)^2 + (3*0.1)^2),2000,SQRT((0.008*J23)^2 + (2*1)^2),20000,SQRT((0.008*J23)^2 + (2*10)^2),200000,SQRT((0.008*J23)^2 + (2*100)^2),2000000,SQRT((0.008*J23)^2 + (2*1000)^2),20000000,SQRT((0.01*J23)^2 + (2*10000)^2),200000000,SQRT((0.06*J23)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" t="e" cm="1">
@@ -1358,33 +1653,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>8.3356678396714779E-3</v>
+      </c>
+      <c r="E24">
+        <v>2.3138000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I24" t="e">
+        <v>2.3663648101958694E-2</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.9265611990008327</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2.3812110473613344E-2</v>
       </c>
       <c r="L24" t="e" cm="1">
         <f t="array" ref="L24">_xlfn.SWITCH(K24,200,SQRT((0.008*J24)^2 + (3*0.1)^2),2000,SQRT((0.008*J24)^2 + (2*1)^2),20000,SQRT((0.008*J24)^2 + (2*10)^2),200000,SQRT((0.008*J24)^2 + (2*100)^2),2000000,SQRT((0.008*J24)^2 + (2*1000)^2),20000000,SQRT((0.01*J24)^2 + (2*10000)^2),200000000,SQRT((0.06*J24)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P24" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" t="e" cm="1">
@@ -1392,33 +1703,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1.3003</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>8.7001629630331263E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I25" t="e">
+        <v>2.4557339703912013E-2</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.8880258401907253</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2.2721337796275887E-2</v>
       </c>
       <c r="L25" t="e" cm="1">
         <f t="array" ref="L25">_xlfn.SWITCH(K25,200,SQRT((0.008*J25)^2 + (3*0.1)^2),2000,SQRT((0.008*J25)^2 + (2*1)^2),20000,SQRT((0.008*J25)^2 + (2*10)^2),200000,SQRT((0.008*J25)^2 + (2*100)^2),2000000,SQRT((0.008*J25)^2 + (2*1000)^2),20000000,SQRT((0.01*J25)^2 + (2*10000)^2),200000000,SQRT((0.06*J25)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" t="e" cm="1">
@@ -1426,33 +1753,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1.3976999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>9.0698657974268466E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I26" t="e">
+        <v>2.5416312662015578E-2</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.8516133648136226</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2.1795434182224252E-2</v>
       </c>
       <c r="L26" t="e" cm="1">
         <f t="array" ref="L26">_xlfn.SWITCH(K26,200,SQRT((0.008*J26)^2 + (3*0.1)^2),2000,SQRT((0.008*J26)^2 + (2*1)^2),20000,SQRT((0.008*J26)^2 + (2*10)^2),200000,SQRT((0.008*J26)^2 + (2*100)^2),2000000,SQRT((0.008*J26)^2 + (2*1000)^2),20000000,SQRT((0.01*J26)^2 + (2*10000)^2),200000000,SQRT((0.06*J26)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" t="e" cm="1">
@@ -1460,33 +1803,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1.4952000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>1.8984551822293128E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.7143999999999999</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I27" t="e">
+        <v>3.6247527424271765E-2</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.8154093097913322</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>3.3451716929250294E-2</v>
       </c>
       <c r="L27" t="e" cm="1">
         <f t="array" ref="L27">_xlfn.SWITCH(K27,200,SQRT((0.008*J27)^2 + (3*0.1)^2),2000,SQRT((0.008*J27)^2 + (2*1)^2),20000,SQRT((0.008*J27)^2 + (2*10)^2),200000,SQRT((0.008*J27)^2 + (2*100)^2),2000000,SQRT((0.008*J27)^2 + (2*1000)^2),20000000,SQRT((0.01*J27)^2 + (2*10000)^2),200000000,SQRT((0.06*J27)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P27" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" t="e" cm="1">
@@ -1494,33 +1853,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1.5936999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>1.9490655029868374E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I28" t="e">
+        <v>3.6838548795159312E-2</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.7795068080567233</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>3.1748040342925291E-2</v>
       </c>
       <c r="L28" t="e" cm="1">
         <f t="array" ref="L28">_xlfn.SWITCH(K28,200,SQRT((0.008*J28)^2 + (3*0.1)^2),2000,SQRT((0.008*J28)^2 + (2*1)^2),20000,SQRT((0.008*J28)^2 + (2*10)^2),200000,SQRT((0.008*J28)^2 + (2*100)^2),2000000,SQRT((0.008*J28)^2 + (2*1000)^2),20000000,SQRT((0.01*J28)^2 + (2*10000)^2),200000000,SQRT((0.06*J28)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P28" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" t="e" cm="1">
@@ -1528,33 +1903,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1.702</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.0068103780211358E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.9306000000000001</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I29" t="e">
+        <v>3.7309408737922038E-2</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.7218566392479437</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>2.9878209542201745E-2</v>
       </c>
       <c r="L29" t="e" cm="1">
         <f t="array" ref="L29">_xlfn.SWITCH(K29,200,SQRT((0.008*J29)^2 + (3*0.1)^2),2000,SQRT((0.008*J29)^2 + (2*1)^2),20000,SQRT((0.008*J29)^2 + (2*10)^2),200000,SQRT((0.008*J29)^2 + (2*100)^2),2000000,SQRT((0.008*J29)^2 + (2*1000)^2),20000000,SQRT((0.01*J29)^2 + (2*10000)^2),200000000,SQRT((0.06*J29)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P29" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" t="e" cm="1">
@@ -1562,33 +1953,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1.802</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.0619272279431528E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.0453000000000001</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I30" t="e">
+        <v>3.7892741614896822E-2</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.6899556048834627</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2.8567659872623868E-2</v>
       </c>
       <c r="L30" t="e" cm="1">
         <f t="array" ref="L30">_xlfn.SWITCH(K30,200,SQRT((0.008*J30)^2 + (3*0.1)^2),2000,SQRT((0.008*J30)^2 + (2*1)^2),20000,SQRT((0.008*J30)^2 + (2*10)^2),200000,SQRT((0.008*J30)^2 + (2*100)^2),2000000,SQRT((0.008*J30)^2 + (2*1000)^2),20000000,SQRT((0.01*J30)^2 + (2*10000)^2),200000000,SQRT((0.06*J30)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" t="e" cm="1">
@@ -1596,33 +2003,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1.9027000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.1190338361935925E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.1474000000000002</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I31" t="e">
+        <v>3.8422980701311206E-2</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.6541756451358596</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2.7334668280894234E-2</v>
       </c>
       <c r="L31" t="e" cm="1">
         <f t="array" ref="L31">_xlfn.SWITCH(K31,200,SQRT((0.008*J31)^2 + (3*0.1)^2),2000,SQRT((0.008*J31)^2 + (2*1)^2),20000,SQRT((0.008*J31)^2 + (2*10)^2),200000,SQRT((0.008*J31)^2 + (2*100)^2),2000000,SQRT((0.008*J31)^2 + (2*1000)^2),20000000,SQRT((0.01*J31)^2 + (2*10000)^2),200000000,SQRT((0.06*J31)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P31" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" t="e" cm="1">
@@ -1630,33 +2053,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2.0026000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.1771526496167728E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.2446000000000002</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I32" t="e">
+        <v>3.8936984983089451E-2</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.6201937481274342</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2.623541196370385E-2</v>
       </c>
       <c r="L32" t="e" cm="1">
         <f t="array" ref="L32">_xlfn.SWITCH(K32,200,SQRT((0.008*J32)^2 + (3*0.1)^2),2000,SQRT((0.008*J32)^2 + (2*1)^2),20000,SQRT((0.008*J32)^2 + (2*10)^2),200000,SQRT((0.008*J32)^2 + (2*100)^2),2000000,SQRT((0.008*J32)^2 + (2*1000)^2),20000000,SQRT((0.01*J32)^2 + (2*10000)^2),200000000,SQRT((0.06*J32)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P32" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" t="e" cm="1">
@@ -1664,33 +2103,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2.1027999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.2367978788735771E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.3428</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I33" t="e">
+        <v>3.9465038845709163E-2</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5896899372265552</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2.5262169165569299E-2</v>
       </c>
       <c r="L33" t="e" cm="1">
         <f t="array" ref="L33">_xlfn.SWITCH(K33,200,SQRT((0.008*J33)^2 + (3*0.1)^2),2000,SQRT((0.008*J33)^2 + (2*1)^2),20000,SQRT((0.008*J33)^2 + (2*10)^2),200000,SQRT((0.008*J33)^2 + (2*100)^2),2000000,SQRT((0.008*J33)^2 + (2*1000)^2),20000000,SQRT((0.01*J33)^2 + (2*10000)^2),200000000,SQRT((0.06*J33)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" t="e" cm="1">
@@ -1698,33 +2153,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.2976916880498424E-2</v>
+      </c>
+      <c r="E34">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I34" t="e">
+        <v>3.9985039068798384E-2</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5605991829323651</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2.4379621441951604E-2</v>
       </c>
       <c r="L34" t="e" cm="1">
         <f t="array" ref="L34">_xlfn.SWITCH(K34,200,SQRT((0.008*J34)^2 + (3*0.1)^2),2000,SQRT((0.008*J34)^2 + (2*1)^2),20000,SQRT((0.008*J34)^2 + (2*10)^2),200000,SQRT((0.008*J34)^2 + (2*100)^2),2000000,SQRT((0.008*J34)^2 + (2*1000)^2),20000000,SQRT((0.01*J34)^2 + (2*10000)^2),200000000,SQRT((0.06*J34)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P34" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" t="e" cm="1">
@@ -1732,33 +2203,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2.3037000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.360049765351005E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.5246</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I35" t="e">
+        <v>4.0464711336834387E-2</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5299735208577505</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>2.3541582121102592E-2</v>
       </c>
       <c r="L35" t="e" cm="1">
         <f t="array" ref="L35">_xlfn.SWITCH(K35,200,SQRT((0.008*J35)^2 + (3*0.1)^2),2000,SQRT((0.008*J35)^2 + (2*1)^2),20000,SQRT((0.008*J35)^2 + (2*10)^2),200000,SQRT((0.008*J35)^2 + (2*100)^2),2000000,SQRT((0.008*J35)^2 + (2*1000)^2),20000000,SQRT((0.01*J35)^2 + (2*10000)^2),200000000,SQRT((0.06*J35)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P35" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" t="e" cm="1">
@@ -1766,33 +2253,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.4232275116739109E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.5880000000000001</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I36" t="e">
+        <v>4.081976175008048E-2</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.4925124792013311</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2.2686010718117815E-2</v>
       </c>
       <c r="L36" t="e" cm="1">
         <f t="array" ref="L36">_xlfn.SWITCH(K36,200,SQRT((0.008*J36)^2 + (3*0.1)^2),2000,SQRT((0.008*J36)^2 + (2*1)^2),20000,SQRT((0.008*J36)^2 + (2*10)^2),200000,SQRT((0.008*J36)^2 + (2*100)^2),2000000,SQRT((0.008*J36)^2 + (2*1000)^2),20000000,SQRT((0.01*J36)^2 + (2*10000)^2),200000000,SQRT((0.06*J36)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" t="e" cm="1">
@@ -1800,33 +2303,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2.5044</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.4874536626303883E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.6135999999999999</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I37" t="e">
+        <v>4.0964033624306742E-2</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.4429004951285738</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>2.1747043102290451E-2</v>
       </c>
       <c r="L37" t="e" cm="1">
         <f t="array" ref="L37">_xlfn.SWITCH(K37,200,SQRT((0.008*J37)^2 + (3*0.1)^2),2000,SQRT((0.008*J37)^2 + (2*1)^2),20000,SQRT((0.008*J37)^2 + (2*10)^2),200000,SQRT((0.008*J37)^2 + (2*100)^2),2000000,SQRT((0.008*J37)^2 + (2*1000)^2),20000000,SQRT((0.01*J37)^2 + (2*10000)^2),200000000,SQRT((0.06*J37)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P37" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" t="e" cm="1">
@@ -1834,33 +2353,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.5520688809930921E-2</v>
+      </c>
+      <c r="E38">
+        <v>3.6257000000000001</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I38" t="e">
+        <v>4.1032403837617575E-2</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.392357910906298</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2.0844854622625454E-2</v>
       </c>
       <c r="L38" t="e" cm="1">
         <f t="array" ref="L38">_xlfn.SWITCH(K38,200,SQRT((0.008*J38)^2 + (3*0.1)^2),2000,SQRT((0.008*J38)^2 + (2*1)^2),20000,SQRT((0.008*J38)^2 + (2*10)^2),200000,SQRT((0.008*J38)^2 + (2*100)^2),2000000,SQRT((0.008*J38)^2 + (2*1000)^2),20000000,SQRT((0.01*J38)^2 + (2*10000)^2),200000000,SQRT((0.06*J38)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" t="e" cm="1">
@@ -1868,33 +2403,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2.7050999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.6185063642720698E-2</v>
+      </c>
+      <c r="E39">
+        <v>3.6332</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I39" t="e">
+        <v>4.1074839460347665E-2</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3430926767956823</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>1.9989653337756451E-2</v>
       </c>
       <c r="L39" t="e" cm="1">
         <f t="array" ref="L39">_xlfn.SWITCH(K39,200,SQRT((0.008*J39)^2 + (3*0.1)^2),2000,SQRT((0.008*J39)^2 + (2*1)^2),20000,SQRT((0.008*J39)^2 + (2*10)^2),200000,SQRT((0.008*J39)^2 + (2*100)^2),2000000,SQRT((0.008*J39)^2 + (2*1000)^2),20000000,SQRT((0.01*J39)^2 + (2*10000)^2),200000000,SQRT((0.06*J39)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" t="e" cm="1">
@@ -1902,33 +2453,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2.8073999999999999</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.6698078941183467E-2</v>
+      </c>
+      <c r="E40">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I40" t="e">
+        <v>4.1130354597709626E-2</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.2976419462848188</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2.2413713844254633E-2</v>
       </c>
       <c r="L40" t="e" cm="1">
         <f t="array" ref="L40">_xlfn.SWITCH(K40,200,SQRT((0.008*J40)^2 + (3*0.1)^2),2000,SQRT((0.008*J40)^2 + (2*1)^2),20000,SQRT((0.008*J40)^2 + (2*10)^2),200000,SQRT((0.008*J40)^2 + (2*100)^2),2000000,SQRT((0.008*J40)^2 + (2*1000)^2),20000000,SQRT((0.01*J40)^2 + (2*10000)^2),200000000,SQRT((0.06*J40)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P40" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U40" t="e" cm="1">
@@ -1936,7 +2503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -1945,8 +2512,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I41" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" t="e" cm="1">
@@ -1954,15 +2525,15 @@
         <v>#N/A</v>
       </c>
       <c r="P41" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" t="e" cm="1">
@@ -1970,17 +2541,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>6.31</v>
+      </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.1551426275209807E-2</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I42" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L42" t="e" cm="1">
@@ -1988,15 +2569,15 @@
         <v>#N/A</v>
       </c>
       <c r="P42" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U42" t="e" cm="1">
@@ -2004,33 +2585,43 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="e">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H43" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I43" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L43" t="e" cm="1">
         <f t="array" ref="L43">_xlfn.SWITCH(K43,200,SQRT((0.008*J43)^2 + (3*0.1)^2),2000,SQRT((0.008*J43)^2 + (2*1)^2),20000,SQRT((0.008*J43)^2 + (2*10)^2),200000,SQRT((0.008*J43)^2 + (2*100)^2),2000000,SQRT((0.008*J43)^2 + (2*1000)^2),20000000,SQRT((0.01*J43)^2 + (2*10000)^2),200000000,SQRT((0.06*J43)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P43" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U43" t="e" cm="1">
@@ -2038,33 +2629,43 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="e">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H44" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I44" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L44" t="e" cm="1">
         <f t="array" ref="L44">_xlfn.SWITCH(K44,200,SQRT((0.008*J44)^2 + (3*0.1)^2),2000,SQRT((0.008*J44)^2 + (2*1)^2),20000,SQRT((0.008*J44)^2 + (2*10)^2),200000,SQRT((0.008*J44)^2 + (2*100)^2),2000000,SQRT((0.008*J44)^2 + (2*1000)^2),20000000,SQRT((0.01*J44)^2 + (2*10000)^2),200000000,SQRT((0.06*J44)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P44" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R44" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U44" t="e" cm="1">
@@ -2072,7 +2673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2081,8 +2682,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I45" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" t="e" cm="1">
@@ -2090,15 +2695,15 @@
         <v>#N/A</v>
       </c>
       <c r="P45" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U45" t="e" cm="1">
@@ -2106,33 +2711,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.05</v>
+      </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>1.7819467818465664E-3</v>
+      </c>
+      <c r="E46">
+        <v>0.64154999999999995</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I46" t="e">
+        <v>6.6115802495192747E-3</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2045454545454546</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>4.3637267009822692E-2</v>
       </c>
       <c r="L46" t="e" cm="1">
         <f t="array" ref="L46">_xlfn.SWITCH(K46,200,SQRT((0.008*J46)^2 + (3*0.1)^2),2000,SQRT((0.008*J46)^2 + (2*1)^2),20000,SQRT((0.008*J46)^2 + (2*10)^2),200000,SQRT((0.008*J46)^2 + (2*100)^2),2000000,SQRT((0.008*J46)^2 + (2*1000)^2),20000000,SQRT((0.01*J46)^2 + (2*10000)^2),200000000,SQRT((0.06*J46)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P46" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" t="e" cm="1">
@@ -2140,33 +2764,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.3009</v>
+      </c>
+      <c r="C47">
+        <v>0.05</v>
+      </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.1063840066173436E-3</v>
+      </c>
+      <c r="E47">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I47" t="e">
+        <v>7.5382185948228743E-3</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2153539381854439</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>3.3678503752736011E-2</v>
       </c>
       <c r="L47" t="e" cm="1">
         <f t="array" ref="L47">_xlfn.SWITCH(K47,200,SQRT((0.008*J47)^2 + (3*0.1)^2),2000,SQRT((0.008*J47)^2 + (2*1)^2),20000,SQRT((0.008*J47)^2 + (2*10)^2),200000,SQRT((0.008*J47)^2 + (2*100)^2),2000000,SQRT((0.008*J47)^2 + (2*1000)^2),20000000,SQRT((0.01*J47)^2 + (2*10000)^2),200000000,SQRT((0.06*J47)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U47" t="e" cm="1">
@@ -2174,33 +2814,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0.4007</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>3.526662102233972E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.2787999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I48" t="e">
+        <v>1.7944202893785316E-2</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.1914150237085099</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>5.2862094374446576E-2</v>
       </c>
       <c r="L48" t="e" cm="1">
         <f t="array" ref="L48">_xlfn.SWITCH(K48,200,SQRT((0.008*J48)^2 + (3*0.1)^2),2000,SQRT((0.008*J48)^2 + (2*1)^2),20000,SQRT((0.008*J48)^2 + (2*10)^2),200000,SQRT((0.008*J48)^2 + (2*100)^2),2000000,SQRT((0.008*J48)^2 + (2*1000)^2),20000000,SQRT((0.01*J48)^2 + (2*10000)^2),200000000,SQRT((0.06*J48)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P48" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U48" t="e" cm="1">
@@ -2208,17 +2864,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="E49" s="1"/>
       <c r="G49">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I49" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" t="e" cm="1">
@@ -2226,15 +2887,15 @@
         <v>#N/A</v>
       </c>
       <c r="P49" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R49" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U49" t="e" cm="1">
@@ -2242,7 +2903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2251,8 +2912,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I50" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L50" t="e" cm="1">
@@ -2260,15 +2925,15 @@
         <v>#N/A</v>
       </c>
       <c r="P50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R50" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U50" t="e" cm="1">
@@ -2276,7 +2941,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2285,8 +2950,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I51" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L51" t="e" cm="1">
@@ -2294,15 +2963,15 @@
         <v>#N/A</v>
       </c>
       <c r="P51" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U51" t="e" cm="1">
@@ -2310,7 +2979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2319,8 +2988,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I52" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L52" t="e" cm="1">
@@ -2328,15 +3001,15 @@
         <v>#N/A</v>
       </c>
       <c r="P52" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R52" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U52" t="e" cm="1">
@@ -2344,17 +3017,30 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>4.04</v>
+      </c>
+      <c r="C53">
+        <v>0.25</v>
+      </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.1452583372016838E-2</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I53" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L53" t="e" cm="1">
@@ -2362,15 +3048,15 @@
         <v>#N/A</v>
       </c>
       <c r="P53" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R53" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U53" t="e" cm="1">
@@ -2378,33 +3064,52 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>996</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>8.4748077460986302</v>
+      </c>
+      <c r="E54">
+        <v>4.07</v>
+      </c>
+      <c r="F54">
+        <v>0.25</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I54" t="e">
+        <v>2.1593884165043896E-2</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.0863453815261049E-3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>4.0975682956330337E-5</v>
       </c>
       <c r="L54" t="e" cm="1">
         <f t="array" ref="L54">_xlfn.SWITCH(K54,200,SQRT((0.008*J54)^2 + (3*0.1)^2),2000,SQRT((0.008*J54)^2 + (2*1)^2),20000,SQRT((0.008*J54)^2 + (2*10)^2),200000,SQRT((0.008*J54)^2 + (2*100)^2),2000000,SQRT((0.008*J54)^2 + (2*1000)^2),20000000,SQRT((0.01*J54)^2 + (2*10000)^2),200000000,SQRT((0.06*J54)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P54" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R54" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U54" t="e" cm="1">
@@ -2412,17 +3117,30 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55">
+        <v>0.85</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.175362940878555E-3</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I55" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L55" t="e" cm="1">
@@ -2430,15 +3148,15 @@
         <v>#N/A</v>
       </c>
       <c r="P55" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R55" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U55" t="e" cm="1">
@@ -2446,17 +3164,30 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="C56">
+        <v>0.25</v>
+      </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>2.5734477522058489E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I56" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L56" t="e" cm="1">
@@ -2464,15 +3195,15 @@
         <v>#N/A</v>
       </c>
       <c r="P56" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U56" t="e" cm="1">
@@ -2480,33 +3211,51 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.1</v>
+      </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <v>7.5039811655769322E-3</v>
+      </c>
+      <c r="E57">
+        <v>4.0860000000000002E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I57" t="e">
+        <v>4.1E-5</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.9523121387283239E-3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>3.3672411127287547E-5</v>
       </c>
       <c r="L57" t="e" cm="1">
         <f t="array" ref="L57">_xlfn.SWITCH(K57,200,SQRT((0.008*J57)^2 + (3*0.1)^2),2000,SQRT((0.008*J57)^2 + (2*1)^2),20000,SQRT((0.008*J57)^2 + (2*10)^2),200000,SQRT((0.008*J57)^2 + (2*100)^2),2000000,SQRT((0.008*J57)^2 + (2*1000)^2),20000000,SQRT((0.01*J57)^2 + (2*10000)^2),200000000,SQRT((0.06*J57)^2 + (10*100000)^2))</f>
         <v>#N/A</v>
       </c>
       <c r="P57" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R57" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U57" t="e" cm="1">
@@ -2514,7 +3263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2523,8 +3272,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H58" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I58" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" t="e" cm="1">
@@ -2532,15 +3285,15 @@
         <v>#N/A</v>
       </c>
       <c r="P58" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R58" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U58" t="e" cm="1">
@@ -2548,17 +3301,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="F59" s="1"/>
       <c r="G59">
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H59" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I59" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" t="e" cm="1">
@@ -2566,15 +3324,15 @@
         <v>#N/A</v>
       </c>
       <c r="P59" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U59" t="e" cm="1">
@@ -2582,7 +3340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2591,8 +3349,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I60" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L60" t="e" cm="1">
@@ -2600,15 +3362,15 @@
         <v>#N/A</v>
       </c>
       <c r="P60" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R60" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U60" t="e" cm="1">
@@ -2616,7 +3378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2625,8 +3387,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H61" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I61" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" t="e" cm="1">
@@ -2634,15 +3400,15 @@
         <v>#N/A</v>
       </c>
       <c r="P61" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R61" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U61" t="e" cm="1">
@@ -2650,7 +3416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2659,8 +3425,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H62" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I62" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" t="e" cm="1">
@@ -2668,15 +3438,15 @@
         <v>#N/A</v>
       </c>
       <c r="P62" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R62" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U62" t="e" cm="1">
@@ -2684,7 +3454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2693,8 +3463,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H63" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I63" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" t="e" cm="1">
@@ -2702,15 +3476,15 @@
         <v>#N/A</v>
       </c>
       <c r="P63" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R63" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U63" t="e" cm="1">
@@ -2718,7 +3492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
@@ -2727,8 +3501,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H64" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I64" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L64" t="e" cm="1">
@@ -2736,15 +3514,15 @@
         <v>#N/A</v>
       </c>
       <c r="P64" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R64" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U64" t="e" cm="1">
@@ -2761,8 +3539,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H65" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I65" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L65" t="e" cm="1">
@@ -2770,15 +3552,15 @@
         <v>#N/A</v>
       </c>
       <c r="P65" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q65" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U65" t="e" cm="1">
@@ -2795,8 +3577,12 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="H66" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I66" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L66" t="e" cm="1">
@@ -2804,15 +3590,15 @@
         <v>#N/A</v>
       </c>
       <c r="P66" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q66" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U66" t="e" cm="1">
@@ -2822,15 +3608,19 @@
     </row>
     <row r="67" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="6">IF(C67&lt;0.5,SQRT((0.005*B67)^2 + (0.1*C67/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*B67)^2 + (0.1*C67/SQRT(12))^2 + (0.003)^2))</f>
+        <f t="shared" ref="D67:D130" si="7">IF(C67&lt;0.5,SQRT((0.005*B67)^2 + (0.1*C67/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*B67)^2 + (0.1*C67/SQRT(12))^2 + (0.003)^2))</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="7">IF(F67&lt;0.5,SQRT((0.005*E67)^2 + (0.1*F67/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E67)^2 + (0.1*F67/SQRT(12))^2 + (0.003)^2))</f>
-        <v>2.9999999999999997E-4</v>
+        <f t="shared" ref="G67:G130" si="8">IF(F67&lt;0.5,SQRT((0.005*E67)^2 + (0.1*F67/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E67)^2 + (0.1*F67/SQRT(12))^2 + (0.003)^2))</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H67" t="e">
+        <f t="shared" ref="H67:H69" si="9">E67/B67</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" ref="I67:I130" si="8">H67*SQRT((G67/E67)^2 + (D67/B67)^2)</f>
+        <f t="shared" ref="I67:I130" si="10">H67*SQRT((G67/E67)^2 + (D67/B67)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L67" t="e" cm="1">
@@ -2838,15 +3628,15 @@
         <v>#N/A</v>
       </c>
       <c r="P67" t="e">
-        <f t="shared" ref="P67:P130" si="9">SQRT((0.1*N67)^2+(1/(O67*2))^2)</f>
+        <f t="shared" ref="P67:P130" si="11">SQRT((0.1*N67)^2+(1/(O67*2))^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q67" t="e">
-        <f t="shared" ref="Q67:Q130" si="10">1/M67</f>
+        <f t="shared" ref="Q67:Q130" si="12">1/M67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" t="e">
-        <f t="shared" ref="R67:R130" si="11">Q67*P67/M67</f>
+        <f t="shared" ref="R67:R130" si="13">Q67*P67/M67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U67" t="e" cm="1">
@@ -2856,15 +3646,19 @@
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G68">
-        <f t="shared" si="7"/>
-        <v>2.9999999999999997E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I68" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L68" t="e" cm="1">
@@ -2872,15 +3666,15 @@
         <v>#N/A</v>
       </c>
       <c r="P68" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R68" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U68" t="e" cm="1">
@@ -2890,15 +3684,19 @@
     </row>
     <row r="69" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G69">
-        <f t="shared" si="7"/>
-        <v>2.9999999999999997E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L69" t="e" cm="1">
@@ -2906,15 +3704,15 @@
         <v>#N/A</v>
       </c>
       <c r="P69" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q69" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R69" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U69" t="e" cm="1">
@@ -2924,15 +3722,15 @@
     </row>
     <row r="70" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L70" t="e" cm="1">
@@ -2940,15 +3738,15 @@
         <v>#N/A</v>
       </c>
       <c r="P70" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q70" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R70" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U70" t="e" cm="1">
@@ -2958,15 +3756,15 @@
     </row>
     <row r="71" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I71" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L71" t="e" cm="1">
@@ -2974,15 +3772,15 @@
         <v>#N/A</v>
       </c>
       <c r="P71" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q71" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R71" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U71" t="e" cm="1">
@@ -2992,15 +3790,15 @@
     </row>
     <row r="72" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I72" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L72" t="e" cm="1">
@@ -3008,15 +3806,15 @@
         <v>#N/A</v>
       </c>
       <c r="P72" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q72" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R72" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U72" t="e" cm="1">
@@ -3026,15 +3824,15 @@
     </row>
     <row r="73" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L73" t="e" cm="1">
@@ -3042,15 +3840,15 @@
         <v>#N/A</v>
       </c>
       <c r="P73" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q73" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R73" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U73" t="e" cm="1">
@@ -3060,15 +3858,15 @@
     </row>
     <row r="74" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I74" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L74" t="e" cm="1">
@@ -3076,15 +3874,15 @@
         <v>#N/A</v>
       </c>
       <c r="P74" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q74" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R74" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U74" t="e" cm="1">
@@ -3094,15 +3892,15 @@
     </row>
     <row r="75" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L75" t="e" cm="1">
@@ -3110,15 +3908,15 @@
         <v>#N/A</v>
       </c>
       <c r="P75" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q75" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R75" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U75" t="e" cm="1">
@@ -3128,15 +3926,15 @@
     </row>
     <row r="76" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I76" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L76" t="e" cm="1">
@@ -3144,15 +3942,15 @@
         <v>#N/A</v>
       </c>
       <c r="P76" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q76" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R76" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U76" t="e" cm="1">
@@ -3162,15 +3960,15 @@
     </row>
     <row r="77" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L77" t="e" cm="1">
@@ -3178,15 +3976,15 @@
         <v>#N/A</v>
       </c>
       <c r="P77" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q77" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R77" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U77" t="e" cm="1">
@@ -3196,15 +3994,15 @@
     </row>
     <row r="78" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I78" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L78" t="e" cm="1">
@@ -3212,15 +4010,15 @@
         <v>#N/A</v>
       </c>
       <c r="P78" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q78" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R78" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U78" t="e" cm="1">
@@ -3230,15 +4028,15 @@
     </row>
     <row r="79" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I79" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L79" t="e" cm="1">
@@ -3246,15 +4044,15 @@
         <v>#N/A</v>
       </c>
       <c r="P79" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q79" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R79" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U79" t="e" cm="1">
@@ -3264,15 +4062,15 @@
     </row>
     <row r="80" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I80" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L80" t="e" cm="1">
@@ -3280,15 +4078,15 @@
         <v>#N/A</v>
       </c>
       <c r="P80" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q80" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R80" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U80" t="e" cm="1">
@@ -3298,15 +4096,15 @@
     </row>
     <row r="81" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L81" t="e" cm="1">
@@ -3314,15 +4112,15 @@
         <v>#N/A</v>
       </c>
       <c r="P81" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q81" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R81" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U81" t="e" cm="1">
@@ -3332,15 +4130,15 @@
     </row>
     <row r="82" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I82" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L82" t="e" cm="1">
@@ -3348,15 +4146,15 @@
         <v>#N/A</v>
       </c>
       <c r="P82" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q82" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R82" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U82" t="e" cm="1">
@@ -3366,15 +4164,15 @@
     </row>
     <row r="83" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I83" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L83" t="e" cm="1">
@@ -3382,15 +4180,15 @@
         <v>#N/A</v>
       </c>
       <c r="P83" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q83" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R83" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U83" t="e" cm="1">
@@ -3400,15 +4198,15 @@
     </row>
     <row r="84" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I84" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L84" t="e" cm="1">
@@ -3416,15 +4214,15 @@
         <v>#N/A</v>
       </c>
       <c r="P84" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R84" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U84" t="e" cm="1">
@@ -3434,15 +4232,15 @@
     </row>
     <row r="85" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L85" t="e" cm="1">
@@ -3450,15 +4248,15 @@
         <v>#N/A</v>
       </c>
       <c r="P85" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q85" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R85" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U85" t="e" cm="1">
@@ -3468,15 +4266,15 @@
     </row>
     <row r="86" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I86" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L86" t="e" cm="1">
@@ -3484,15 +4282,15 @@
         <v>#N/A</v>
       </c>
       <c r="P86" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q86" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R86" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U86" t="e" cm="1">
@@ -3502,15 +4300,15 @@
     </row>
     <row r="87" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I87" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L87" t="e" cm="1">
@@ -3518,15 +4316,15 @@
         <v>#N/A</v>
       </c>
       <c r="P87" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q87" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R87" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U87" t="e" cm="1">
@@ -3536,15 +4334,15 @@
     </row>
     <row r="88" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I88" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L88" t="e" cm="1">
@@ -3552,15 +4350,15 @@
         <v>#N/A</v>
       </c>
       <c r="P88" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q88" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R88" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U88" t="e" cm="1">
@@ -3570,15 +4368,15 @@
     </row>
     <row r="89" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I89" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L89" t="e" cm="1">
@@ -3586,15 +4384,15 @@
         <v>#N/A</v>
       </c>
       <c r="P89" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q89" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R89" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U89" t="e" cm="1">
@@ -3604,15 +4402,15 @@
     </row>
     <row r="90" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I90" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L90" t="e" cm="1">
@@ -3620,15 +4418,15 @@
         <v>#N/A</v>
       </c>
       <c r="P90" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q90" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R90" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U90" t="e" cm="1">
@@ -3638,15 +4436,15 @@
     </row>
     <row r="91" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I91" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L91" t="e" cm="1">
@@ -3654,15 +4452,15 @@
         <v>#N/A</v>
       </c>
       <c r="P91" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q91" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R91" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U91" t="e" cm="1">
@@ -3672,15 +4470,15 @@
     </row>
     <row r="92" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I92" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L92" t="e" cm="1">
@@ -3688,15 +4486,15 @@
         <v>#N/A</v>
       </c>
       <c r="P92" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q92" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R92" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U92" t="e" cm="1">
@@ -3706,15 +4504,15 @@
     </row>
     <row r="93" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I93" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L93" t="e" cm="1">
@@ -3722,15 +4520,15 @@
         <v>#N/A</v>
       </c>
       <c r="P93" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q93" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R93" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U93" t="e" cm="1">
@@ -3740,15 +4538,15 @@
     </row>
     <row r="94" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I94" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L94" t="e" cm="1">
@@ -3756,15 +4554,15 @@
         <v>#N/A</v>
       </c>
       <c r="P94" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q94" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R94" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U94" t="e" cm="1">
@@ -3774,15 +4572,15 @@
     </row>
     <row r="95" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I95" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L95" t="e" cm="1">
@@ -3790,15 +4588,15 @@
         <v>#N/A</v>
       </c>
       <c r="P95" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q95" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U95" t="e" cm="1">
@@ -3808,15 +4606,15 @@
     </row>
     <row r="96" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I96" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L96" t="e" cm="1">
@@ -3824,15 +4622,15 @@
         <v>#N/A</v>
       </c>
       <c r="P96" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q96" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R96" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U96" t="e" cm="1">
@@ -3842,15 +4640,15 @@
     </row>
     <row r="97" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I97" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L97" t="e" cm="1">
@@ -3858,15 +4656,15 @@
         <v>#N/A</v>
       </c>
       <c r="P97" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q97" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R97" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U97" t="e" cm="1">
@@ -3876,15 +4674,15 @@
     </row>
     <row r="98" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I98" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L98" t="e" cm="1">
@@ -3892,15 +4690,15 @@
         <v>#N/A</v>
       </c>
       <c r="P98" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q98" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R98" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U98" t="e" cm="1">
@@ -3910,15 +4708,15 @@
     </row>
     <row r="99" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I99" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L99" t="e" cm="1">
@@ -3926,15 +4724,15 @@
         <v>#N/A</v>
       </c>
       <c r="P99" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q99" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R99" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U99" t="e" cm="1">
@@ -3944,15 +4742,15 @@
     </row>
     <row r="100" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I100" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L100" t="e" cm="1">
@@ -3960,15 +4758,15 @@
         <v>#N/A</v>
       </c>
       <c r="P100" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q100" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R100" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U100" t="e" cm="1">
@@ -3978,15 +4776,15 @@
     </row>
     <row r="101" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I101" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L101" t="e" cm="1">
@@ -3994,15 +4792,15 @@
         <v>#N/A</v>
       </c>
       <c r="P101" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q101" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R101" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U101" t="e" cm="1">
@@ -4012,15 +4810,15 @@
     </row>
     <row r="102" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I102" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L102" t="e" cm="1">
@@ -4028,15 +4826,15 @@
         <v>#N/A</v>
       </c>
       <c r="P102" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q102" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R102" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U102" t="e" cm="1">
@@ -4046,15 +4844,15 @@
     </row>
     <row r="103" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I103" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L103" t="e" cm="1">
@@ -4062,15 +4860,15 @@
         <v>#N/A</v>
       </c>
       <c r="P103" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q103" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R103" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U103" t="e" cm="1">
@@ -4080,15 +4878,15 @@
     </row>
     <row r="104" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I104" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L104" t="e" cm="1">
@@ -4096,15 +4894,15 @@
         <v>#N/A</v>
       </c>
       <c r="P104" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q104" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R104" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U104" t="e" cm="1">
@@ -4114,15 +4912,15 @@
     </row>
     <row r="105" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L105" t="e" cm="1">
@@ -4130,15 +4928,15 @@
         <v>#N/A</v>
       </c>
       <c r="P105" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q105" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R105" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U105" t="e" cm="1">
@@ -4148,15 +4946,15 @@
     </row>
     <row r="106" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I106" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L106" t="e" cm="1">
@@ -4164,15 +4962,15 @@
         <v>#N/A</v>
       </c>
       <c r="P106" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q106" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R106" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U106" t="e" cm="1">
@@ -4182,15 +4980,15 @@
     </row>
     <row r="107" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I107" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L107" t="e" cm="1">
@@ -4198,15 +4996,15 @@
         <v>#N/A</v>
       </c>
       <c r="P107" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q107" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R107" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U107" t="e" cm="1">
@@ -4216,15 +5014,15 @@
     </row>
     <row r="108" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I108" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L108" t="e" cm="1">
@@ -4232,15 +5030,15 @@
         <v>#N/A</v>
       </c>
       <c r="P108" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q108" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R108" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U108" t="e" cm="1">
@@ -4250,15 +5048,15 @@
     </row>
     <row r="109" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I109" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L109" t="e" cm="1">
@@ -4266,15 +5064,15 @@
         <v>#N/A</v>
       </c>
       <c r="P109" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q109" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R109" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U109" t="e" cm="1">
@@ -4284,15 +5082,15 @@
     </row>
     <row r="110" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I110" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L110" t="e" cm="1">
@@ -4300,15 +5098,15 @@
         <v>#N/A</v>
       </c>
       <c r="P110" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q110" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R110" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U110" t="e" cm="1">
@@ -4318,15 +5116,15 @@
     </row>
     <row r="111" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I111" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L111" t="e" cm="1">
@@ -4334,15 +5132,15 @@
         <v>#N/A</v>
       </c>
       <c r="P111" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q111" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R111" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U111" t="e" cm="1">
@@ -4352,15 +5150,15 @@
     </row>
     <row r="112" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I112" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L112" t="e" cm="1">
@@ -4368,15 +5166,15 @@
         <v>#N/A</v>
       </c>
       <c r="P112" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U112" t="e" cm="1">
@@ -4386,15 +5184,15 @@
     </row>
     <row r="113" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I113" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L113" t="e" cm="1">
@@ -4402,15 +5200,15 @@
         <v>#N/A</v>
       </c>
       <c r="P113" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q113" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R113" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U113" t="e" cm="1">
@@ -4420,15 +5218,15 @@
     </row>
     <row r="114" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L114" t="e" cm="1">
@@ -4436,15 +5234,15 @@
         <v>#N/A</v>
       </c>
       <c r="P114" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q114" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R114" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U114" t="e" cm="1">
@@ -4454,15 +5252,15 @@
     </row>
     <row r="115" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I115" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L115" t="e" cm="1">
@@ -4470,15 +5268,15 @@
         <v>#N/A</v>
       </c>
       <c r="P115" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q115" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R115" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U115" t="e" cm="1">
@@ -4488,15 +5286,15 @@
     </row>
     <row r="116" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I116" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L116" t="e" cm="1">
@@ -4504,15 +5302,15 @@
         <v>#N/A</v>
       </c>
       <c r="P116" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q116" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R116" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U116" t="e" cm="1">
@@ -4522,15 +5320,15 @@
     </row>
     <row r="117" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I117" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L117" t="e" cm="1">
@@ -4538,15 +5336,15 @@
         <v>#N/A</v>
       </c>
       <c r="P117" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q117" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R117" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U117" t="e" cm="1">
@@ -4556,15 +5354,15 @@
     </row>
     <row r="118" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I118" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L118" t="e" cm="1">
@@ -4572,15 +5370,15 @@
         <v>#N/A</v>
       </c>
       <c r="P118" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q118" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R118" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U118" t="e" cm="1">
@@ -4590,15 +5388,15 @@
     </row>
     <row r="119" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I119" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L119" t="e" cm="1">
@@ -4606,15 +5404,15 @@
         <v>#N/A</v>
       </c>
       <c r="P119" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q119" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R119" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U119" t="e" cm="1">
@@ -4624,15 +5422,15 @@
     </row>
     <row r="120" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I120" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L120" t="e" cm="1">
@@ -4640,15 +5438,15 @@
         <v>#N/A</v>
       </c>
       <c r="P120" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q120" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R120" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U120" t="e" cm="1">
@@ -4658,15 +5456,15 @@
     </row>
     <row r="121" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I121" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L121" t="e" cm="1">
@@ -4674,15 +5472,15 @@
         <v>#N/A</v>
       </c>
       <c r="P121" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q121" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R121" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U121" t="e" cm="1">
@@ -4692,15 +5490,15 @@
     </row>
     <row r="122" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I122" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L122" t="e" cm="1">
@@ -4708,15 +5506,15 @@
         <v>#N/A</v>
       </c>
       <c r="P122" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q122" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R122" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U122" t="e" cm="1">
@@ -4726,15 +5524,15 @@
     </row>
     <row r="123" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I123" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L123" t="e" cm="1">
@@ -4742,15 +5540,15 @@
         <v>#N/A</v>
       </c>
       <c r="P123" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q123" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R123" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U123" t="e" cm="1">
@@ -4760,15 +5558,15 @@
     </row>
     <row r="124" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I124" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L124" t="e" cm="1">
@@ -4776,15 +5574,15 @@
         <v>#N/A</v>
       </c>
       <c r="P124" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q124" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R124" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U124" t="e" cm="1">
@@ -4794,15 +5592,15 @@
     </row>
     <row r="125" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I125" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L125" t="e" cm="1">
@@ -4810,15 +5608,15 @@
         <v>#N/A</v>
       </c>
       <c r="P125" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q125" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R125" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U125" t="e" cm="1">
@@ -4828,15 +5626,15 @@
     </row>
     <row r="126" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I126" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L126" t="e" cm="1">
@@ -4844,15 +5642,15 @@
         <v>#N/A</v>
       </c>
       <c r="P126" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q126" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R126" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U126" t="e" cm="1">
@@ -4862,15 +5660,15 @@
     </row>
     <row r="127" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I127" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L127" t="e" cm="1">
@@ -4878,15 +5676,15 @@
         <v>#N/A</v>
       </c>
       <c r="P127" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q127" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R127" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U127" t="e" cm="1">
@@ -4896,15 +5694,15 @@
     </row>
     <row r="128" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I128" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L128" t="e" cm="1">
@@ -4912,15 +5710,15 @@
         <v>#N/A</v>
       </c>
       <c r="P128" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q128" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R128" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U128" t="e" cm="1">
@@ -4930,15 +5728,15 @@
     </row>
     <row r="129" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I129" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L129" t="e" cm="1">
@@ -4946,15 +5744,15 @@
         <v>#N/A</v>
       </c>
       <c r="P129" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q129" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R129" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U129" t="e" cm="1">
@@ -4964,15 +5762,15 @@
     </row>
     <row r="130" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I130" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L130" t="e" cm="1">
@@ -4980,15 +5778,15 @@
         <v>#N/A</v>
       </c>
       <c r="P130" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q130" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R130" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U130" t="e" cm="1">
@@ -4998,15 +5796,15 @@
     </row>
     <row r="131" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D131">
-        <f t="shared" ref="D131:D142" si="12">IF(C131&lt;0.5,SQRT((0.005*B131)^2 + (0.1*C131/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*B131)^2 + (0.1*C131/SQRT(12))^2 + (0.003)^2))</f>
+        <f t="shared" ref="D131:D142" si="14">IF(C131&lt;0.5,SQRT((0.005*B131)^2 + (0.1*C131/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*B131)^2 + (0.1*C131/SQRT(12))^2 + (0.003)^2))</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G142" si="13">IF(F131&lt;0.5,SQRT((0.005*E131)^2 + (0.1*F131/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E131)^2 + (0.1*F131/SQRT(12))^2 + (0.003)^2))</f>
+        <f t="shared" ref="G131:G142" si="15">IF(F131&lt;0.5,SQRT((0.005*E131)^2 + (0.1*F131/SQRT(12))^2 + (0.0003)^2),SQRT((0.008*E131)^2 + (0.1*F131/SQRT(12))^2 + (0.003)^2))</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I131" t="e">
-        <f t="shared" ref="I131:I142" si="14">H131*SQRT((G131/E131)^2 + (D131/B131)^2)</f>
+        <f t="shared" ref="I131:I142" si="16">H131*SQRT((G131/E131)^2 + (D131/B131)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L131" t="e" cm="1">
@@ -5014,15 +5812,15 @@
         <v>#N/A</v>
       </c>
       <c r="P131" t="e">
-        <f t="shared" ref="P131:P142" si="15">SQRT((0.1*N131)^2+(1/(O131*2))^2)</f>
+        <f t="shared" ref="P131:P142" si="17">SQRT((0.1*N131)^2+(1/(O131*2))^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q131" t="e">
-        <f t="shared" ref="Q131:Q142" si="16">1/M131</f>
+        <f t="shared" ref="Q131:Q142" si="18">1/M131</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R131" t="e">
-        <f t="shared" ref="R131:R142" si="17">Q131*P131/M131</f>
+        <f t="shared" ref="R131:R142" si="19">Q131*P131/M131</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U131" t="e" cm="1">
@@ -5032,15 +5830,15 @@
     </row>
     <row r="132" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I132" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L132" t="e" cm="1">
@@ -5048,15 +5846,15 @@
         <v>#N/A</v>
       </c>
       <c r="P132" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q132" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R132" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U132" t="e" cm="1">
@@ -5066,15 +5864,15 @@
     </row>
     <row r="133" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I133" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L133" t="e" cm="1">
@@ -5082,15 +5880,15 @@
         <v>#N/A</v>
       </c>
       <c r="P133" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q133" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R133" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U133" t="e" cm="1">
@@ -5100,15 +5898,15 @@
     </row>
     <row r="134" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I134" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L134" t="e" cm="1">
@@ -5116,15 +5914,15 @@
         <v>#N/A</v>
       </c>
       <c r="P134" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q134" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R134" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U134" t="e" cm="1">
@@ -5134,15 +5932,15 @@
     </row>
     <row r="135" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I135" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L135" t="e" cm="1">
@@ -5150,15 +5948,15 @@
         <v>#N/A</v>
       </c>
       <c r="P135" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q135" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R135" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U135" t="e" cm="1">
@@ -5168,15 +5966,15 @@
     </row>
     <row r="136" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I136" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L136" t="e" cm="1">
@@ -5184,15 +5982,15 @@
         <v>#N/A</v>
       </c>
       <c r="P136" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q136" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R136" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U136" t="e" cm="1">
@@ -5202,15 +6000,15 @@
     </row>
     <row r="137" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I137" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L137" t="e" cm="1">
@@ -5218,15 +6016,15 @@
         <v>#N/A</v>
       </c>
       <c r="P137" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q137" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R137" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U137" t="e" cm="1">
@@ -5236,15 +6034,15 @@
     </row>
     <row r="138" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I138" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L138" t="e" cm="1">
@@ -5252,15 +6050,15 @@
         <v>#N/A</v>
       </c>
       <c r="P138" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q138" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R138" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U138" t="e" cm="1">
@@ -5270,15 +6068,15 @@
     </row>
     <row r="139" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I139" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L139" t="e" cm="1">
@@ -5286,15 +6084,15 @@
         <v>#N/A</v>
       </c>
       <c r="P139" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q139" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R139" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U139" t="e" cm="1">
@@ -5304,15 +6102,15 @@
     </row>
     <row r="140" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I140" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L140" t="e" cm="1">
@@ -5320,15 +6118,15 @@
         <v>#N/A</v>
       </c>
       <c r="P140" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q140" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R140" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U140" t="e" cm="1">
@@ -5338,15 +6136,15 @@
     </row>
     <row r="141" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I141" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L141" t="e" cm="1">
@@ -5354,15 +6152,15 @@
         <v>#N/A</v>
       </c>
       <c r="P141" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q141" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R141" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U141" t="e" cm="1">
@@ -5372,15 +6170,15 @@
     </row>
     <row r="142" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I142" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L142" t="e" cm="1">
@@ -5388,15 +6186,15 @@
         <v>#N/A</v>
       </c>
       <c r="P142" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q142" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R142" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U142" t="e" cm="1">
@@ -5408,4 +6206,252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015C1C82232BCDD4E8403C2C6769F02E5" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd6cf77a7ac3c1ec1f9c9f8908144c44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02d2cdba-bff0-4691-9d02-a9d86914f2d0" xmlns:ns4="b946910f-fefa-40d2-aaf0-8db932c80f2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bd5f93f8273bef8e9c85ba9fd495840" ns3:_="" ns4:_="">
+    <xsd:import namespace="02d2cdba-bff0-4691-9d02-a9d86914f2d0"/>
+    <xsd:import namespace="b946910f-fefa-40d2-aaf0-8db932c80f2f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="02d2cdba-bff0-4691-9d02-a9d86914f2d0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="8" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b946910f-fefa-40d2-aaf0-8db932c80f2f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC1A97E-3B00-4899-A55D-A46EEB0B1514}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b946910f-fefa-40d2-aaf0-8db932c80f2f"/>
+    <ds:schemaRef ds:uri="02d2cdba-bff0-4691-9d02-a9d86914f2d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05404F7-6920-4A93-A24B-E351659727D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB9710-5A47-40CA-96B0-00D690723702}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02d2cdba-bff0-4691-9d02-a9d86914f2d0"/>
+    <ds:schemaRef ds:uri="b946910f-fefa-40d2-aaf0-8db932c80f2f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>